--- a/summary-tables/SummaryTable_Class_wTotals_formatted_Scenario2.xlsx
+++ b/summary-tables/SummaryTable_Class_wTotals_formatted_Scenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\summary-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D16A7-EBB4-40DD-9601-2797AF0EFEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558BFF2-C8B2-4DE0-858B-EB2886DBEA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitsDensity" sheetId="1" r:id="rId1"/>
@@ -934,10 +934,13 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,13 +949,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1040,10 +1040,10 @@
             <v>49500</v>
           </cell>
           <cell r="J4">
-            <v>22800</v>
+            <v>15500</v>
           </cell>
           <cell r="M4">
-            <v>288</v>
+            <v>259</v>
           </cell>
         </row>
         <row r="5">
@@ -1051,10 +1051,10 @@
             <v>92100</v>
           </cell>
           <cell r="J5">
-            <v>21700</v>
+            <v>15500</v>
           </cell>
           <cell r="M5">
-            <v>297</v>
+            <v>281</v>
           </cell>
         </row>
         <row r="6">
@@ -1062,10 +1062,10 @@
             <v>29000</v>
           </cell>
           <cell r="J6">
-            <v>11700</v>
+            <v>10000</v>
           </cell>
           <cell r="M6">
-            <v>136</v>
+            <v>130</v>
           </cell>
         </row>
         <row r="7">
@@ -1095,10 +1095,10 @@
             <v>323100</v>
           </cell>
           <cell r="J9">
-            <v>97400</v>
+            <v>113200</v>
           </cell>
           <cell r="M9">
-            <v>45</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="10">
@@ -1106,10 +1106,10 @@
             <v>13800</v>
           </cell>
           <cell r="J10">
-            <v>6600</v>
+            <v>9800</v>
           </cell>
           <cell r="M10">
-            <v>54</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="11">
@@ -1117,10 +1117,10 @@
             <v>37400</v>
           </cell>
           <cell r="J11">
-            <v>15600</v>
+            <v>22400</v>
           </cell>
           <cell r="M11">
-            <v>49</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="12">
@@ -1128,10 +1128,10 @@
             <v>318300</v>
           </cell>
           <cell r="J12">
-            <v>114200</v>
+            <v>184600</v>
           </cell>
           <cell r="M12">
-            <v>23</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="13">
@@ -1139,10 +1139,10 @@
             <v>10500</v>
           </cell>
           <cell r="J13">
-            <v>5300</v>
+            <v>9900</v>
           </cell>
           <cell r="M13">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="14">
@@ -1150,10 +1150,10 @@
             <v>50300</v>
           </cell>
           <cell r="J14">
-            <v>15400</v>
+            <v>25500</v>
           </cell>
           <cell r="M14">
-            <v>22</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="15">
@@ -1161,15 +1161,15 @@
             <v>1009900</v>
           </cell>
           <cell r="J15">
-            <v>341800</v>
+            <v>437500</v>
           </cell>
           <cell r="M15">
-            <v>37</v>
+            <v>40</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1486,34 +1486,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="42" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="46"/>
       <c r="E3" s="32" t="s">
         <v>61</v>
@@ -1570,27 +1570,27 @@
       </c>
       <c r="H4" s="26">
         <f>[1]UnitsDensity!J4</f>
-        <v>22800</v>
+        <v>15500</v>
       </c>
       <c r="I4" s="2">
         <f>SummaryTable_Class_wTotals!H2</f>
-        <v>31800</v>
+        <v>21400</v>
       </c>
       <c r="J4" s="34">
         <f>I4-H4</f>
-        <v>9000</v>
+        <v>5900</v>
       </c>
       <c r="K4" s="26">
         <f>[1]UnitsDensity!M4</f>
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="L4" s="2">
         <f>SummaryTable_Class_wTotals!K2</f>
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="M4" s="34">
         <f>L4-K4</f>
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1620,27 +1620,27 @@
       </c>
       <c r="H5" s="28">
         <f>[1]UnitsDensity!J5</f>
-        <v>21700</v>
+        <v>15500</v>
       </c>
       <c r="I5" s="4">
         <f>SummaryTable_Class_wTotals!H3</f>
-        <v>46800</v>
+        <v>31900</v>
       </c>
       <c r="J5" s="35">
         <f t="shared" ref="J5:J15" si="2">I5-H5</f>
-        <v>25100</v>
+        <v>16400</v>
       </c>
       <c r="K5" s="28">
         <f>[1]UnitsDensity!M5</f>
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="L5" s="4">
         <f>SummaryTable_Class_wTotals!K3</f>
-        <v>655</v>
+        <v>616</v>
       </c>
       <c r="M5" s="35">
         <f t="shared" ref="M5:M15" si="3">L5-K5</f>
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1670,27 +1670,27 @@
       </c>
       <c r="H6" s="26">
         <f>[1]UnitsDensity!J6</f>
-        <v>11700</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="2">
         <f>SummaryTable_Class_wTotals!H4</f>
-        <v>18600</v>
+        <v>15500</v>
       </c>
       <c r="J6" s="34">
         <f t="shared" si="2"/>
-        <v>6900</v>
+        <v>5500</v>
       </c>
       <c r="K6" s="26">
         <f>[1]UnitsDensity!M6</f>
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L6" s="2">
         <f>SummaryTable_Class_wTotals!K4</f>
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M6" s="34">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1820,27 +1820,27 @@
       </c>
       <c r="H9" s="28">
         <f>[1]UnitsDensity!J9</f>
-        <v>97400</v>
+        <v>113200</v>
       </c>
       <c r="I9" s="4">
         <f>SummaryTable_Class_wTotals!H7</f>
-        <v>167600</v>
+        <v>201700</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="2"/>
-        <v>70200</v>
+        <v>88500</v>
       </c>
       <c r="K9" s="28">
         <f>[1]UnitsDensity!M9</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="4">
         <f>SummaryTable_Class_wTotals!K7</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M9" s="35">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -1870,27 +1870,27 @@
       </c>
       <c r="H10" s="26">
         <f>[1]UnitsDensity!J10</f>
-        <v>6600</v>
+        <v>9800</v>
       </c>
       <c r="I10" s="2">
         <f>SummaryTable_Class_wTotals!H8</f>
-        <v>7400</v>
+        <v>11000</v>
       </c>
       <c r="J10" s="34">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="26">
         <f>[1]UnitsDensity!M10</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L10" s="2">
         <f>SummaryTable_Class_wTotals!K8</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -1920,27 +1920,27 @@
       </c>
       <c r="H11" s="28">
         <f>[1]UnitsDensity!J11</f>
-        <v>15600</v>
+        <v>22400</v>
       </c>
       <c r="I11" s="4">
         <f>SummaryTable_Class_wTotals!H9</f>
-        <v>21400</v>
+        <v>31500</v>
       </c>
       <c r="J11" s="35">
         <f t="shared" si="2"/>
-        <v>5800</v>
+        <v>9100</v>
       </c>
       <c r="K11" s="28">
         <f>[1]UnitsDensity!M11</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L11" s="4">
         <f>SummaryTable_Class_wTotals!K9</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M11" s="35">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -1970,27 +1970,27 @@
       </c>
       <c r="H12" s="26">
         <f>[1]UnitsDensity!J12</f>
-        <v>114200</v>
+        <v>184600</v>
       </c>
       <c r="I12" s="2">
         <f>SummaryTable_Class_wTotals!H10</f>
-        <v>159400</v>
+        <v>278600</v>
       </c>
       <c r="J12" s="34">
         <f t="shared" si="2"/>
-        <v>45200</v>
+        <v>94000</v>
       </c>
       <c r="K12" s="26">
         <f>[1]UnitsDensity!M12</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L12" s="2">
         <f>SummaryTable_Class_wTotals!K10</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M12" s="34">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -2020,27 +2020,27 @@
       </c>
       <c r="H13" s="28">
         <f>[1]UnitsDensity!J13</f>
-        <v>5300</v>
+        <v>9900</v>
       </c>
       <c r="I13" s="4">
         <f>SummaryTable_Class_wTotals!H11</f>
-        <v>6800</v>
+        <v>14100</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="K13" s="28">
         <f>[1]UnitsDensity!M13</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L13" s="4">
         <f>SummaryTable_Class_wTotals!K11</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M13" s="35">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -2070,27 +2070,27 @@
       </c>
       <c r="H14" s="26">
         <f>[1]UnitsDensity!J14</f>
-        <v>15400</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="2">
         <f>SummaryTable_Class_wTotals!H12</f>
-        <v>18900</v>
+        <v>38100</v>
       </c>
       <c r="J14" s="34">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>12600</v>
       </c>
       <c r="K14" s="26">
         <f>[1]UnitsDensity!M14</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L14" s="2">
         <f>SummaryTable_Class_wTotals!K12</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M14" s="34">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -2119,58 +2119,58 @@
       </c>
       <c r="H15" s="30">
         <f>[1]UnitsDensity!J15</f>
-        <v>341800</v>
+        <v>437500</v>
       </c>
       <c r="I15" s="36">
         <f>SummaryTable_Class_wTotals!H13</f>
-        <v>538800</v>
+        <v>703900</v>
       </c>
       <c r="J15" s="37">
         <f t="shared" si="2"/>
-        <v>197000</v>
+        <v>266400</v>
       </c>
       <c r="K15" s="30">
         <f>[1]UnitsDensity!M15</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L15" s="36">
         <f>SummaryTable_Class_wTotals!K13</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M15" s="37">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="42" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="46"/>
       <c r="E19" s="32" t="s">
         <v>61</v>
@@ -2226,27 +2226,27 @@
       </c>
       <c r="H20" s="26">
         <f t="shared" si="4"/>
-        <v>56200</v>
+        <v>41000</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="4"/>
-        <v>97200</v>
+        <v>68800</v>
       </c>
       <c r="J20" s="34">
         <f t="shared" si="4"/>
-        <v>41000</v>
+        <v>27800</v>
       </c>
       <c r="K20" s="26">
-        <f>(E20+H20)/$C20</f>
-        <v>242.96454791130108</v>
+        <f t="shared" ref="K20:L23" si="5">(E20+H20)/$C20</f>
+        <v>226.68120960331265</v>
       </c>
       <c r="L20" s="2">
-        <f>(F20+I20)/$C20</f>
-        <v>534.9933651979884</v>
+        <f t="shared" si="5"/>
+        <v>504.5692330962205</v>
       </c>
       <c r="M20" s="34">
         <f>L20-K20</f>
-        <v>292.02881728668729</v>
+        <v>277.88802349290785</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -2258,44 +2258,44 @@
         <v>11035.162902563668</v>
       </c>
       <c r="D21" s="29">
-        <f t="shared" ref="D21:D24" si="5">C21/$C$15</f>
+        <f t="shared" ref="D21:D24" si="6">C21/$C$15</f>
         <v>0.30337740444398942</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" ref="E21:J21" si="6">E7+E8+E9</f>
+        <f t="shared" ref="E21:J21" si="7">E7+E8+E9</f>
         <v>409000</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1052900</v>
       </c>
       <c r="G21" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>643900</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="6"/>
-        <v>128600</v>
+        <f t="shared" si="7"/>
+        <v>144400</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="6"/>
-        <v>227700</v>
+        <f t="shared" si="7"/>
+        <v>261800</v>
       </c>
       <c r="J21" s="35">
-        <f t="shared" si="6"/>
-        <v>99100</v>
+        <f t="shared" si="7"/>
+        <v>117400</v>
       </c>
       <c r="K21" s="28">
-        <f>(E21+H21)/$C21</f>
-        <v>48.716997179543746</v>
+        <f t="shared" si="5"/>
+        <v>50.148783927008012</v>
       </c>
       <c r="L21" s="4">
-        <f>(F21+I21)/$C21</f>
-        <v>116.04722207612299</v>
+        <f t="shared" si="5"/>
+        <v>119.13734410704271</v>
       </c>
       <c r="M21" s="35">
-        <f t="shared" ref="M21:M23" si="7">L21-K21</f>
-        <v>67.330224896579239</v>
+        <f t="shared" ref="M21:M23" si="8">L21-K21</f>
+        <v>68.988560180034696</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -2307,44 +2307,44 @@
         <v>20407.068228034204</v>
       </c>
       <c r="D22" s="27">
+        <f t="shared" si="6"/>
+        <v>0.56102872662569647</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:J22" si="9">E10+E11+E12</f>
+        <v>369500</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="9"/>
+        <v>642000</v>
+      </c>
+      <c r="G22" s="34">
+        <f t="shared" si="9"/>
+        <v>272500</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="9"/>
+        <v>216800</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="9"/>
+        <v>321100</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="9"/>
+        <v>104300</v>
+      </c>
+      <c r="K22" s="26">
         <f t="shared" si="5"/>
-        <v>0.56102872662569647</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" ref="E22:J22" si="8">E10+E11+E12</f>
-        <v>369500</v>
-      </c>
-      <c r="F22" s="2">
+        <v>28.730241573582362</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>47.194432303457567</v>
+      </c>
+      <c r="M22" s="34">
         <f t="shared" si="8"/>
-        <v>642000</v>
-      </c>
-      <c r="G22" s="34">
-        <f t="shared" si="8"/>
-        <v>272500</v>
-      </c>
-      <c r="H22" s="26">
-        <f t="shared" si="8"/>
-        <v>136400</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="8"/>
-        <v>188200</v>
-      </c>
-      <c r="J22" s="34">
-        <f t="shared" si="8"/>
-        <v>51800</v>
-      </c>
-      <c r="K22" s="26">
-        <f>(E22+H22)/$C22</f>
-        <v>24.790430175806438</v>
-      </c>
-      <c r="L22" s="2">
-        <f>(F22+I22)/$C22</f>
-        <v>40.681982866089164</v>
-      </c>
-      <c r="M22" s="34">
-        <f t="shared" si="7"/>
-        <v>15.891552690282726</v>
+        <v>18.464190729875206</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -2356,44 +2356,44 @@
         <v>3998.6724596310596</v>
       </c>
       <c r="D23" s="29">
+        <f t="shared" si="6"/>
+        <v>0.10993103434320008</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" ref="E23:J23" si="10">E13+E14</f>
+        <v>60800</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="10"/>
+        <v>95900</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" si="10"/>
+        <v>35100</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="10"/>
+        <v>35400</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="10"/>
+        <v>52200</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="10"/>
+        <v>16800</v>
+      </c>
+      <c r="K23" s="28">
         <f t="shared" si="5"/>
-        <v>0.10993103434320008</v>
-      </c>
-      <c r="E23" s="28">
-        <f t="shared" ref="E23:J23" si="9">E13+E14</f>
-        <v>60800</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="9"/>
-        <v>95900</v>
-      </c>
-      <c r="G23" s="35">
-        <f t="shared" si="9"/>
-        <v>35100</v>
-      </c>
-      <c r="H23" s="28">
-        <f t="shared" si="9"/>
-        <v>20700</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="9"/>
-        <v>25700</v>
-      </c>
-      <c r="J23" s="35">
-        <f t="shared" si="9"/>
-        <v>5000</v>
-      </c>
-      <c r="K23" s="28">
-        <f>(E23+H23)/$C23</f>
-        <v>20.381764403759057</v>
+        <v>24.057984486400258</v>
       </c>
       <c r="L23" s="4">
-        <f>(F23+I23)/$C23</f>
-        <v>30.41009265640615</v>
+        <f t="shared" si="5"/>
+        <v>37.037292125113083</v>
       </c>
       <c r="M23" s="35">
-        <f t="shared" si="7"/>
-        <v>10.028328252647093</v>
+        <f t="shared" si="8"/>
+        <v>12.979307638712825</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -2405,75 +2405,75 @@
         <v>36374.373110575601</v>
       </c>
       <c r="D24" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" ref="E24:M24" si="10">E15</f>
+        <f t="shared" ref="E24:M24" si="11">E15</f>
         <v>1009900</v>
       </c>
       <c r="F24" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2192900</v>
       </c>
       <c r="G24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1183000</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="10"/>
-        <v>341800</v>
+        <f t="shared" si="11"/>
+        <v>437500</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" si="10"/>
-        <v>538800</v>
+        <f t="shared" si="11"/>
+        <v>703900</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="10"/>
-        <v>197000</v>
+        <f t="shared" si="11"/>
+        <v>266400</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" si="10"/>
-        <v>37</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="L24" s="36">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="M24" s="37">
-        <f t="shared" si="10"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="42" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="42" t="s">
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="46"/>
       <c r="E28" s="32" t="s">
         <v>61</v>
@@ -2516,36 +2516,36 @@
         <v>7.439372792953021E-2</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" ref="E29:J29" si="11">E4+E7+E10+E13</f>
+        <f t="shared" ref="E29:J29" si="12">E4+E7+E10+E13</f>
         <v>131000</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>331700</v>
       </c>
       <c r="G29" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200700</v>
       </c>
       <c r="H29" s="26">
-        <f t="shared" si="11"/>
-        <v>54600</v>
+        <f t="shared" si="12"/>
+        <v>55100</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="11"/>
-        <v>83500</v>
+        <f t="shared" si="12"/>
+        <v>84000</v>
       </c>
       <c r="J29" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28900</v>
       </c>
       <c r="K29" s="26">
-        <f>(E29+H29)/$C29</f>
-        <v>68.587683088850667</v>
+        <f t="shared" ref="K29:L31" si="13">(E29+H29)/$C29</f>
+        <v>68.77245594199951</v>
       </c>
       <c r="L29" s="2">
-        <f>(F29+I29)/$C29</f>
-        <v>153.43537725479956</v>
+        <f t="shared" si="13"/>
+        <v>153.6201501079484</v>
       </c>
       <c r="M29" s="34">
         <f>L29-K29</f>
@@ -2561,44 +2561,44 @@
         <v>4972.0671315634718</v>
       </c>
       <c r="D30" s="29">
-        <f t="shared" ref="D30:D32" si="12">C30/$C$15</f>
+        <f t="shared" ref="D30:D32" si="14">C30/$C$15</f>
         <v>0.1366914865157601</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" ref="E30:J30" si="13">E5+E8+E11+E14</f>
+        <f t="shared" ref="E30:J30" si="15">E5+E8+E11+E14</f>
         <v>208500</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="15"/>
+        <v>436700</v>
+      </c>
+      <c r="G30" s="35">
+        <f t="shared" si="15"/>
+        <v>228200</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="15"/>
+        <v>74700</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="15"/>
+        <v>124100</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="15"/>
+        <v>49400</v>
+      </c>
+      <c r="K30" s="28">
         <f t="shared" si="13"/>
-        <v>436700</v>
-      </c>
-      <c r="G30" s="35">
+        <v>56.958201188033328</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="13"/>
-        <v>228200</v>
-      </c>
-      <c r="H30" s="28">
-        <f t="shared" si="13"/>
-        <v>64000</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="13"/>
-        <v>109700</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="13"/>
-        <v>45700</v>
-      </c>
-      <c r="K30" s="28">
-        <f>(E30+H30)/$C30</f>
-        <v>54.806178756140824</v>
-      </c>
-      <c r="L30" s="4">
-        <f>(F30+I30)/$C30</f>
-        <v>109.89393054075357</v>
+        <v>112.79011026217898</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" ref="M30:M31" si="14">L30-K30</f>
-        <v>55.087751784612749</v>
+        <f t="shared" ref="M30:M31" si="16">L30-K30</f>
+        <v>55.831909074145656</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -2610,44 +2610,44 @@
         <v>28696.280762216717</v>
       </c>
       <c r="D31" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78891478555470884</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:J31" si="15">E6+E9+E12</f>
+        <f t="shared" ref="E31:J31" si="17">E6+E9+E12</f>
         <v>670400</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1424600</v>
       </c>
       <c r="G31" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>754200</v>
       </c>
       <c r="H31" s="26">
-        <f t="shared" si="15"/>
-        <v>223300</v>
+        <f t="shared" si="17"/>
+        <v>307800</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="15"/>
-        <v>345600</v>
+        <f t="shared" si="17"/>
+        <v>495800</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" si="15"/>
-        <v>122300</v>
+        <f t="shared" si="17"/>
+        <v>188000</v>
       </c>
       <c r="K31" s="26">
-        <f>(E31+H31)/$C31</f>
-        <v>31.143408701823834</v>
+        <f t="shared" si="13"/>
+        <v>34.088041168316074</v>
       </c>
       <c r="L31" s="2">
-        <f>(F31+I31)/$C31</f>
-        <v>61.687436593900138</v>
+        <f t="shared" si="13"/>
+        <v>66.921564362741961</v>
       </c>
       <c r="M31" s="34">
-        <f t="shared" si="14"/>
-        <v>30.544027892076304</v>
+        <f t="shared" si="16"/>
+        <v>32.833523194425887</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -2659,48 +2659,54 @@
         <v>36374.373110575601</v>
       </c>
       <c r="D32" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" ref="E32:M32" si="16">E24</f>
+        <f t="shared" ref="E32:M32" si="18">E24</f>
         <v>1009900</v>
       </c>
       <c r="F32" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2192900</v>
       </c>
       <c r="G32" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1183000</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="16"/>
-        <v>341800</v>
+        <f t="shared" si="18"/>
+        <v>437500</v>
       </c>
       <c r="I32" s="36">
-        <f t="shared" si="16"/>
-        <v>538800</v>
+        <f t="shared" si="18"/>
+        <v>703900</v>
       </c>
       <c r="J32" s="37">
-        <f t="shared" si="16"/>
-        <v>197000</v>
+        <f t="shared" si="18"/>
+        <v>266400</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="16"/>
-        <v>37</v>
+        <f t="shared" si="18"/>
+        <v>40</v>
       </c>
       <c r="L32" s="36">
-        <f t="shared" si="16"/>
-        <v>75</v>
+        <f t="shared" si="18"/>
+        <v>80</v>
       </c>
       <c r="M32" s="37">
-        <f t="shared" si="16"/>
-        <v>38</v>
+        <f t="shared" si="18"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="B27:B28"/>
@@ -2713,12 +2719,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2732,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF95D237-0CC0-48D9-B8E7-CC6B51F60950}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,10 +2746,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="47" t="s">
@@ -2770,9 +2770,9 @@
       <c r="K2" s="45"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
@@ -2830,11 +2830,11 @@
       </c>
       <c r="J4" s="6">
         <f>SummaryTable_Class_wTotals!R2</f>
-        <v>0.666769119816077</v>
+        <v>0.66495847043601797</v>
       </c>
       <c r="K4" s="7">
         <f>SummaryTable_Class_wTotals!S2</f>
-        <v>0.333230880183922</v>
+        <v>0.33504152956398098</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="J5" s="8">
         <f>SummaryTable_Class_wTotals!R3</f>
-        <v>0.687982071027047</v>
+        <v>0.68444036551496901</v>
       </c>
       <c r="K5" s="9">
         <f>SummaryTable_Class_wTotals!S3</f>
-        <v>0.312017928972952</v>
+        <v>0.31555963448502999</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="J6" s="6">
         <f>SummaryTable_Class_wTotals!R4</f>
-        <v>0.80140850023196097</v>
+        <v>0.79883767109738102</v>
       </c>
       <c r="K6" s="7">
         <f>SummaryTable_Class_wTotals!S4</f>
-        <v>0.198591499768038</v>
+        <v>0.20116232890261901</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3040,11 +3040,11 @@
       </c>
       <c r="J9" s="8">
         <f>SummaryTable_Class_wTotals!R7</f>
-        <v>0.586336952012944</v>
+        <v>0.59330744521886603</v>
       </c>
       <c r="K9" s="9">
         <f>SummaryTable_Class_wTotals!S7</f>
-        <v>0.413663047987055</v>
+        <v>0.40669255478113298</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -3082,11 +3082,11 @@
       </c>
       <c r="J10" s="6">
         <f>SummaryTable_Class_wTotals!R8</f>
-        <v>0.16598597129529599</v>
+        <v>0.16910676497997901</v>
       </c>
       <c r="K10" s="7">
         <f>SummaryTable_Class_wTotals!S8</f>
-        <v>0.83401402870470298</v>
+        <v>0.83089323502002099</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3124,11 +3124,11 @@
       </c>
       <c r="J11" s="8">
         <f>SummaryTable_Class_wTotals!R9</f>
-        <v>0.50931985793271595</v>
+        <v>0.51579861962813101</v>
       </c>
       <c r="K11" s="9">
         <f>SummaryTable_Class_wTotals!S9</f>
-        <v>0.490680142067283</v>
+        <v>0.484201380371868</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3166,11 +3166,11 @@
       </c>
       <c r="J12" s="6">
         <f>SummaryTable_Class_wTotals!R10</f>
-        <v>0.432482055132138</v>
+        <v>0.45789997589424603</v>
       </c>
       <c r="K12" s="7">
         <f>SummaryTable_Class_wTotals!S10</f>
-        <v>0.567517944867861</v>
+        <v>0.54210002410575298</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -3208,11 +3208,11 @@
       </c>
       <c r="J13" s="8">
         <f>SummaryTable_Class_wTotals!R11</f>
-        <v>0.39265157270361101</v>
+        <v>0.433648754428131</v>
       </c>
       <c r="K13" s="9">
         <f>SummaryTable_Class_wTotals!S11</f>
-        <v>0.60734842729638805</v>
+        <v>0.566351245571868</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3250,11 +3250,11 @@
       </c>
       <c r="J14" s="6">
         <f>SummaryTable_Class_wTotals!R12</f>
-        <v>0.53124718534638204</v>
+        <v>0.607235168434061</v>
       </c>
       <c r="K14" s="7">
         <f>SummaryTable_Class_wTotals!S12</f>
-        <v>0.46875281465361701</v>
+        <v>0.392764831565938</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -3291,11 +3291,11 @@
       </c>
       <c r="J15" s="10">
         <f>SummaryTable_Class_wTotals!R13</f>
-        <v>0.55965720048104795</v>
+        <v>0.54117768028730395</v>
       </c>
       <c r="K15" s="11">
         <f>SummaryTable_Class_wTotals!S13</f>
-        <v>0.440342799518952</v>
+        <v>0.45882231971269499</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3317,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J4" sqref="A1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,19 +3408,19 @@
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>31800</v>
+        <v>21400</v>
       </c>
       <c r="I2">
-        <v>30800</v>
+        <v>20400</v>
       </c>
       <c r="J2">
         <v>31</v>
       </c>
       <c r="K2">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="L2">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="M2">
         <v>0.37672932750501598</v>
@@ -3438,10 +3438,10 @@
         <v>0.34031337849387699</v>
       </c>
       <c r="R2">
-        <v>0.666769119816077</v>
+        <v>0.66495847043601797</v>
       </c>
       <c r="S2">
-        <v>0.333230880183922</v>
+        <v>0.33504152956398098</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3467,19 +3467,19 @@
         <v>3100</v>
       </c>
       <c r="H3">
-        <v>46800</v>
+        <v>31900</v>
       </c>
       <c r="I3">
-        <v>43700</v>
+        <v>28800</v>
       </c>
       <c r="J3">
         <v>153</v>
       </c>
       <c r="K3">
-        <v>655</v>
+        <v>616</v>
       </c>
       <c r="L3">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="M3">
         <v>0.41383274378317902</v>
@@ -3497,10 +3497,10 @@
         <v>0.36677573949742998</v>
       </c>
       <c r="R3">
-        <v>0.687982071027047</v>
+        <v>0.68444036551496901</v>
       </c>
       <c r="S3">
-        <v>0.312017928972952</v>
+        <v>0.31555963448502999</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3526,19 +3526,19 @@
         <v>2300</v>
       </c>
       <c r="H4">
-        <v>18600</v>
+        <v>15500</v>
       </c>
       <c r="I4">
-        <v>16300</v>
+        <v>13200</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L4">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M4">
         <v>0.36136235399872202</v>
@@ -3556,10 +3556,10 @@
         <v>0.21808238105873301</v>
       </c>
       <c r="R4">
-        <v>0.80140850023196097</v>
+        <v>0.79883767109738102</v>
       </c>
       <c r="S4">
-        <v>0.198591499768038</v>
+        <v>0.20116232890261901</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3703,19 +3703,19 @@
         <v>27200</v>
       </c>
       <c r="H7">
-        <v>167600</v>
+        <v>201700</v>
       </c>
       <c r="I7">
-        <v>140400</v>
+        <v>174500</v>
       </c>
       <c r="J7">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M7">
         <v>0.435672911813342</v>
@@ -3733,10 +3733,10 @@
         <v>0.42720998077573202</v>
       </c>
       <c r="R7">
-        <v>0.586336952012944</v>
+        <v>0.59330744521886603</v>
       </c>
       <c r="S7">
-        <v>0.413663047987055</v>
+        <v>0.40669255478113298</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3762,19 +3762,19 @@
         <v>200</v>
       </c>
       <c r="H8">
-        <v>7400</v>
+        <v>11000</v>
       </c>
       <c r="I8">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M8">
         <v>0.25079495593823797</v>
@@ -3792,10 +3792,10 @@
         <v>0.85438195076802903</v>
       </c>
       <c r="R8">
-        <v>0.16598597129529599</v>
+        <v>0.16910676497997901</v>
       </c>
       <c r="S8">
-        <v>0.83401402870470298</v>
+        <v>0.83089323502002099</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3821,19 +3821,19 @@
         <v>2100</v>
       </c>
       <c r="H9">
-        <v>21400</v>
+        <v>31500</v>
       </c>
       <c r="I9">
-        <v>19300</v>
+        <v>29400</v>
       </c>
       <c r="J9">
         <v>13</v>
       </c>
       <c r="K9">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L9">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M9">
         <v>0.26913929035305201</v>
@@ -3851,10 +3851,10 @@
         <v>0.54897057630485502</v>
       </c>
       <c r="R9">
-        <v>0.50931985793271595</v>
+        <v>0.51579861962813101</v>
       </c>
       <c r="S9">
-        <v>0.490680142067283</v>
+        <v>0.484201380371868</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3880,19 +3880,19 @@
         <v>33300</v>
       </c>
       <c r="H10">
-        <v>159400</v>
+        <v>278600</v>
       </c>
       <c r="I10">
-        <v>126100</v>
+        <v>245300</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M10">
         <v>0.342971911618424</v>
@@ -3910,10 +3910,10 @@
         <v>0.64317345574570695</v>
       </c>
       <c r="R10">
-        <v>0.432482055132138</v>
+        <v>0.45789997589424603</v>
       </c>
       <c r="S10">
-        <v>0.567517944867861</v>
+        <v>0.54210002410575298</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,19 +3939,19 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>6800</v>
+        <v>14100</v>
       </c>
       <c r="I11">
-        <v>4800</v>
+        <v>12100</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M11">
         <v>0.40666339857689499</v>
@@ -3969,10 +3969,10 @@
         <v>0.57921590138462598</v>
       </c>
       <c r="R11">
-        <v>0.39265157270361101</v>
+        <v>0.433648754428131</v>
       </c>
       <c r="S11">
-        <v>0.60734842729638805</v>
+        <v>0.566351245571868</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3998,19 +3998,19 @@
         <v>8200</v>
       </c>
       <c r="H12">
-        <v>18900</v>
+        <v>38100</v>
       </c>
       <c r="I12">
-        <v>10700</v>
+        <v>29900</v>
       </c>
       <c r="J12">
         <v>15</v>
       </c>
       <c r="K12">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M12">
         <v>0.46485514044059001</v>
@@ -4028,10 +4028,10 @@
         <v>0.47047704245060001</v>
       </c>
       <c r="R12">
-        <v>0.53124718534638204</v>
+        <v>0.607235168434061</v>
       </c>
       <c r="S12">
-        <v>0.46875281465361701</v>
+        <v>0.392764831565938</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4054,19 +4054,19 @@
         <v>84000</v>
       </c>
       <c r="H13">
-        <v>538800</v>
+        <v>703900</v>
       </c>
       <c r="I13">
-        <v>454800</v>
+        <v>619900</v>
       </c>
       <c r="J13">
         <v>16</v>
       </c>
       <c r="K13">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M13">
         <v>0.37863044106576799</v>
@@ -4084,10 +4084,10 @@
         <v>0.46432589433291899</v>
       </c>
       <c r="R13">
-        <v>0.55965720048104795</v>
+        <v>0.54117768028730395</v>
       </c>
       <c r="S13">
-        <v>0.440342799518952</v>
+        <v>0.45882231971269499</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
